--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -505,7 +505,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -583,7 +585,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -661,7 +665,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -739,7 +745,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -817,7 +825,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -895,7 +905,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -973,7 +985,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Breva</t>
@@ -1051,7 +1065,9 @@
           <t>Berries</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>100101006</v>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Breva</t>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44181</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44196</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -607,13 +607,13 @@
         <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44196</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44181</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -607,13 +607,13 @@
         <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44196</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44196</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44181</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44181</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44181</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44196</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44181</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44181</v>
+        <v>44196</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44181</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44196</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1007,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44196</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44902</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,31 +1084,111 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>45</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>20000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>20000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>20000</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>4000</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,31 +1164,111 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>40</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>45</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>20000</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>20000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>20000</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>4000</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44188</v>
+        <v>44902</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44196</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44902</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1087,13 +1087,13 @@
         <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44907</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1247,13 +1247,13 @@
         <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44907</v>
+        <v>44181</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,31 +1244,111 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>45</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>25000</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>25000</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>25000</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>5000</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,6 +1352,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100101006</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Breva</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>50</v>
+      </c>
+      <c r="N13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44902</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44914</v>
+        <v>44196</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44931</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44902</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44179</v>
+        <v>44914</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44907</v>
+        <v>44175</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44931</v>
+        <v>44193</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44902</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44196</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44931</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44902</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44914</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>44907</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44931</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44907</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44902</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44189</v>
+        <v>44931</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44181</v>
+        <v>44902</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44907</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44181</v>
+        <v>44931</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44914</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1007,13 +1007,13 @@
         <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44931</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44914</v>
+        <v>44179</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44902</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44179</v>
+        <v>44907</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44914</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44181</v>
+        <v>44196</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44914</v>
+        <v>44175</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44179</v>
+        <v>44907</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44902</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44907</v>
+        <v>44931</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44914</v>
+        <v>44179</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44914</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44931</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44907</v>
+        <v>44181</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44902</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44931</v>
+        <v>44907</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44196</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44175</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44907</v>
+        <v>44186</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44914</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44189</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44914</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44931</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44907</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44181</v>
+        <v>44931</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
         <v>15000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44179</v>
+        <v>44902</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44914</v>
+        <v>44907</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44931</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44181</v>
+        <v>44902</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44196</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>56</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44902</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44907</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44914</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44931</v>
+        <v>44196</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44907</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44175</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44931</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44196</v>
+        <v>44931</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44902</v>
+        <v>44196</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44907</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44175</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44931</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44931</v>
+        <v>44196</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44196</v>
+        <v>44902</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44907</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44914</v>
+        <v>44902</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4600</v>
+        <v>2400</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44907</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44914</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44902</v>
+        <v>44914</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44907</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44931</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44181</v>
+        <v>44931</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44931</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44914</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44179</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44914</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44907</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44902</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44902</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44931</v>
+        <v>44196</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44914</v>
+        <v>44907</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44196</v>
+        <v>44181</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44181</v>
+        <v>44902</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44179</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44931</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>3600</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44188</v>
+        <v>44193</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44902</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44931</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44181</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44902</v>
+        <v>44181</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44914</v>
+        <v>44179</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44931</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>15000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44902</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44907</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44181</v>
+        <v>44193</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44914</v>
+        <v>44196</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44186</v>
+        <v>44914</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44193</v>
+        <v>44175</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44196</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44181</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44907</v>
+        <v>44902</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44914</v>
+        <v>44186</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44175</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44931</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44193</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44196</v>
+        <v>44189</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44179</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44188</v>
+        <v>44181</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1087,13 +1087,13 @@
         <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44914</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44186</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44175</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44196</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44931</v>
+        <v>44186</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>44196</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44179</v>
+        <v>44902</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44175</v>
+        <v>44914</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44193</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
         <v>15000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44186</v>
+        <v>44179</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44196</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44196</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44189</v>
+        <v>44907</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44902</v>
+        <v>44181</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44931</v>
+        <v>44189</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44914</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4600</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44181</v>
+        <v>44188</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1247,13 +1247,13 @@
         <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44193</v>
+        <v>44931</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44179</v>
+        <v>44189</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>15000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44914</v>
+        <v>44931</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44907</v>
+        <v>44902</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44189</v>
+        <v>44196</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44902</v>
+        <v>44193</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44188</v>
+        <v>44179</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44931</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44189</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44902</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44196</v>
+        <v>44179</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44193</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44196</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>56</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44175</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44175</v>
+        <v>44196</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44188</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44931</v>
+        <v>44188</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44914</v>
+        <v>44907</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44179</v>
+        <v>44931</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44907</v>
+        <v>44179</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1087,13 +1087,13 @@
         <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44902</v>
+        <v>44181</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44196</v>
+        <v>44914</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>56</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44186</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44189</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44931</v>
+        <v>44179</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44907</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1087,13 +1087,13 @@
         <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44181</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44196</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>56</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44196</v>
+        <v>44907</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44179</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44175</v>
+        <v>44189</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44907</v>
+        <v>44188</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44186</v>
+        <v>44902</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44931</v>
+        <v>44186</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44179</v>
+        <v>44196</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T9" t="n">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44189</v>
+        <v>44181</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Breva.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44907</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44179</v>
+        <v>44196</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44189</v>
+        <v>44907</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T4" t="n">
         <v>5</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44931</v>
+        <v>44186</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="T5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44188</v>
+        <v>44931</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="T6" t="n">
         <v>5</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44902</v>
+        <v>44914</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="T7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44186</v>
+        <v>44175</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="T8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44196</v>
+        <v>44188</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>15000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44175</v>
+        <v>44193</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44193</v>
+        <v>44902</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44914</v>
+        <v>44189</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
